--- a/CFTSTAPI02/jmeter/jmeter.xlsx
+++ b/CFTSTAPI02/jmeter/jmeter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\negritando-ibm-ksw\CFTSTDADOS01\CFTSTAPI02\jmeter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7066FFD-6368-4C41-AD74-20303D2AD4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CD736A-3516-4496-9B54-B0AAD1538F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="0" windowWidth="19170" windowHeight="10080" xr2:uid="{7E2E3577-958F-4875-992A-21B5194F6A8E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>segundos</t>
   </si>
@@ -512,13 +512,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0D2520-3328-48EA-8CBB-52737B6EFB38}">
-  <dimension ref="B2:Q16"/>
+  <dimension ref="B2:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -716,7 +716,7 @@
         <v>9</v>
       </c>
       <c r="M9" s="1">
-        <v>31.22</v>
+        <v>31.2</v>
       </c>
       <c r="P9" s="7">
         <v>0.47291666666666665</v>
@@ -741,7 +741,7 @@
         <v>6</v>
       </c>
       <c r="M10" s="1">
-        <v>42.59</v>
+        <v>42.5</v>
       </c>
       <c r="P10" s="7">
         <v>0.47916666666666669</v>
@@ -766,7 +766,7 @@
         <v>4</v>
       </c>
       <c r="M11" s="1">
-        <v>29.57</v>
+        <v>29.5</v>
       </c>
       <c r="P11" s="7">
         <v>0.4909722222222222</v>
@@ -803,17 +803,93 @@
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" ref="H14:H17" si="2">J14*I14</f>
+        <v>135</v>
+      </c>
+      <c r="I14" s="1">
+        <v>15</v>
+      </c>
+      <c r="J14" s="11">
+        <v>9</v>
+      </c>
+      <c r="M14" s="1">
+        <v>22.7</v>
+      </c>
+      <c r="P14" s="7">
+        <v>0.52430555555555558</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
-        <v>23</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="8">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="I15" s="1">
+        <v>15</v>
+      </c>
+      <c r="J15" s="11">
+        <v>6</v>
+      </c>
+      <c r="M15" s="1">
+        <v>12.87</v>
+      </c>
+      <c r="P15" s="7"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B16" s="1">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="8">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="I16" s="1">
+        <v>15</v>
+      </c>
+      <c r="J16" s="11">
+        <v>4</v>
+      </c>
+      <c r="M16" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B17" s="1">
+        <v>20</v>
+      </c>
+      <c r="H17" s="8">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="I17" s="1">
+        <v>15</v>
+      </c>
+      <c r="J17" s="11">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
